--- a/results_exact/22_origem_porto.xlsx
+++ b/results_exact/22_origem_porto.xlsx
@@ -444,29 +444,29 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Paraúna, GO, Brazil</t>
+          <t>Padre Bernardo, GO, Brazil</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -485,14 +485,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Caldas Novas, GO, Brazil</t>
+          <t>Niquelândia, GO, Brazil</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>81122.39999999999</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -504,7 +504,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Quirinópolis, GO, Brazil</t>
+          <t>Santa Helena de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -523,14 +523,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Goiatuba, GO, Brazil</t>
+          <t>Cristalina, GO, Brazil</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>195412.72</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -542,14 +542,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Piracanjuba, GO, Brazil</t>
+          <t>Gameleira de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>126987.5572706892</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Santa Cruz de Goiás, GO, Brazil</t>
+          <t>Bom Jesus de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -580,7 +580,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Orizona, GO, Brazil</t>
+          <t>Vicentinópolis, GO, Brazil</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>55945.12</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Perolândia, GO, Brazil</t>
+          <t>Itaberaí, GO, Brazil</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -618,7 +618,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Acreúna, GO, Brazil</t>
+          <t>Morrinhos, GO, Brazil</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>54698.00280727334</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -637,7 +637,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Padre Bernardo, GO, Brazil</t>
+          <t>Ipameri, GO, Brazil</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>74736.14799999999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -656,7 +656,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Vianópolis, GO, Brazil</t>
+          <t>Montes Claros de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -675,14 +675,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chapadão do Céu, GO, Brazil</t>
+          <t>Doverlândia, GO, Brazil</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>243944.8</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -694,14 +694,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ipameri, GO, Brazil</t>
+          <t>Paraúna, GO, Brazil</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>218719.668</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Itaberaí, GO, Brazil</t>
+          <t>Palmeiras de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -732,7 +732,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cristalina, GO, Brazil</t>
+          <t>Serranópolis, GO, Brazil</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -751,7 +751,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Montes Claros de Goiás, GO, Brazil</t>
+          <t>Acreúna, GO, Brazil</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -770,7 +770,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Edéia, GO, Brazil</t>
+          <t>São João d'Aliança, GO, Brazil</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -789,7 +789,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Doverlândia, GO, Brazil</t>
+          <t>Turvelândia, GO, Brazil</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -808,7 +808,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bela Vista de Goiás, GO, Brazil</t>
+          <t>Caldas Novas, GO, Brazil</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>81122.39999999999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Santa Helena de Goiás, GO, Brazil</t>
+          <t>Goiatuba, GO, Brazil</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>195412.72</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -846,7 +846,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mineiros, GO, Brazil</t>
+          <t>Joviânia, GO, Brazil</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>54455.52</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -865,14 +865,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Itumbiara, GO, Brazil</t>
+          <t>Uruaçu, GO, Brazil</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>78921.44</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -884,7 +884,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Montividiu, GO, Brazil</t>
+          <t>Edealina, GO, Brazil</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -903,7 +903,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jataí, GO, Brazil</t>
+          <t>Cabeceiras, GO, Brazil</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -922,14 +922,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Catalão, GO, Brazil</t>
+          <t>Água Fria de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>307860.8</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Caiapônia, GO, Brazil</t>
+          <t>Orizona, GO, Brazil</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -960,14 +960,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Vicentinópolis, GO, Brazil</t>
+          <t>Caiapônia, GO, Brazil</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>55945.12</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -979,14 +979,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bom Jesus de Goiás, GO, Brazil</t>
+          <t>Santa Cruz de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>152946.96</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Palmeiras de Goiás, GO, Brazil</t>
+          <t>Montividiu, GO, Brazil</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1017,7 +1017,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Rio Verde, GO, Brazil</t>
+          <t>Vianópolis, GO, Brazil</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1036,7 +1036,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Niquelândia, GO, Brazil</t>
+          <t>Mineiros, GO, Brazil</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1055,7 +1055,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Turvelândia, GO, Brazil</t>
+          <t>Piracanjuba, GO, Brazil</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1074,17 +1074,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Edealina, GO, Brazil</t>
+          <t>Catalão, GO, Brazil</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>49367.72799999983</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>307860.8</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Portelândia, GO, Brazil</t>
+          <t>Pontalina, GO, Brazil</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1112,7 +1112,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>São João d'Aliança, GO, Brazil</t>
+          <t>Portelândia, GO, Brazil</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1131,7 +1131,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Uruaçu, GO, Brazil</t>
+          <t>Luziânia, GO, Brazil</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1150,14 +1150,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pontalina, GO, Brazil</t>
+          <t>Jataí, GO, Brazil</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>79784.8</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1169,7 +1169,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Gameleira de Goiás, GO, Brazil</t>
+          <t>Silvânia, GO, Brazil</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1188,7 +1188,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Serranópolis, GO, Brazil</t>
+          <t>Perolândia, GO, Brazil</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1207,7 +1207,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cabeceiras, GO, Brazil</t>
+          <t>Rio Verde, GO, Brazil</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1226,7 +1226,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Água Fria de Goiás, GO, Brazil</t>
+          <t>Bela Vista de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1245,14 +1245,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Joviânia, GO, Brazil</t>
+          <t>Quirinópolis, GO, Brazil</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>54455.52</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1264,17 +1264,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Morrinhos, GO, Brazil</t>
+          <t>Chapadão do Céu, GO, Brazil</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>77611.2</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>19459.59999999986</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1283,7 +1283,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Silvânia, GO, Brazil</t>
+          <t>Edéia, GO, Brazil</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1302,17 +1302,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Campo Alegre de Goiás, GO, Brazil</t>
+          <t>Itumbiara, GO, Brazil</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>180416.4</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>78921.44</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -1321,7 +1321,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Luziânia, GO, Brazil</t>
+          <t>Campo Alegre de Goiás, GO, Brazil</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>180416.4</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1359,22 +1359,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>11338772.15755424</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>27831089.16251708</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>19235656.787445</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>8566451.133266961</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8053534.505581724</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>10405679.63030139</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>41233893.67120531</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>30452824.43582566</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>11338772.15755424</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>27831089.16251708</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>8143734.71592185</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>10637340.93056431</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>40072222.94875938</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>8566451.133266961</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>22119475.85887044</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1831,10 +1831,10 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>7817417.591369083</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>40072222.94875938</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>12262201.06939671</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>8143734.71592185</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>11427190.11920652</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>3289248.540178685</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>25405309.89979183</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>10637340.93056431</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>25405309.89979183</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -2044,22 +2044,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3575438318299.608</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>8795951893792.389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>6123026619000.045</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2730128172204.048</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2555295784668.447</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3279642760222.906</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>13278233846116.27</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>9598064589501.691</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3575438318299.608</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>8795951893792.389</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2588537663885.578</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>3339027379351.623</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>12521493952760.83</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>2730128172204.048</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>7003579508920.404</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2516,10 +2516,10 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>2500523205236.568</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>12521493952760.83</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>3909565117923.264</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>2588537663885.578</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -2656,10 +2656,10 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>3625718710458.816</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1059211425502.336</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>8018284064502.169</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3339027379351.623</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>8018284064502.169</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1374733769.006294</v>
+        <v>1218716706.325244</v>
       </c>
       <c r="B2" t="n">
-        <v>159209705399636.9</v>
+        <v>148105097172688.7</v>
       </c>
     </row>
   </sheetData>
